--- a/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-7.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-7.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="858">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-7.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-7.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71722" uniqueCount="858">
   <si>
     <t>ANSPs</t>
   </si>
@@ -30955,7 +30955,7 @@
         <v>89</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>89</v>
@@ -32109,10 +32109,10 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>89</v>
@@ -32121,58 +32121,58 @@
         <v>89</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="X14" s="5" t="s">
         <v>89</v>
@@ -32190,34 +32190,34 @@
         <v>89</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
     </row>
     <row r="15">
@@ -33394,13 +33394,13 @@
         <v>89</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>89</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>89</v>
@@ -33436,7 +33436,7 @@
         <v>89</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="T25" s="5" t="s">
         <v>89</v>
@@ -33445,7 +33445,7 @@
         <v>89</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="W25" s="5" t="s">
         <v>89</v>
@@ -33454,7 +33454,7 @@
         <v>89</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>89</v>
@@ -33475,7 +33475,7 @@
         <v>89</v>
       </c>
       <c r="AF25" s="5" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="AG25" s="5" t="s">
         <v>89</v>
@@ -33487,10 +33487,10 @@
         <v>89</v>
       </c>
       <c r="AJ25" s="5" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="AL25" s="5" t="s">
         <v>89</v>
@@ -33573,7 +33573,7 @@
         <v>89</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AA26" s="5" t="s">
         <v>89</v>
@@ -33692,7 +33692,7 @@
         <v>89</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AB27" s="5" t="s">
         <v>89</v>
@@ -33733,73 +33733,73 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>89</v>
@@ -33811,34 +33811,34 @@
         <v>89</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>89</v>
@@ -35009,115 +35009,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
     </row>
     <row r="40">
@@ -35125,115 +35125,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41">
@@ -35241,115 +35241,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>118</v>
+        <v>267</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>118</v>
+        <v>297</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>118</v>
+        <v>314</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>118</v>
+        <v>329</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>118</v>
+        <v>362</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>118</v>
+        <v>394</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>118</v>
+        <v>420</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>118</v>
+        <v>448</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>118</v>
+        <v>463</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>118</v>
+        <v>492</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>118</v>
+        <v>520</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>118</v>
+        <v>536</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>118</v>
+        <v>591</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>118</v>
+        <v>627</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>118</v>
+        <v>656</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>118</v>
+        <v>683</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>118</v>
+        <v>708</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>118</v>
+        <v>736</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>118</v>
+        <v>760</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>118</v>
+        <v>784</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>118</v>
+        <v>798</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>118</v>
+        <v>816</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>118</v>
+        <v>847</v>
       </c>
     </row>
     <row r="42">
